--- a/update log/trade manager - package info.xlsx
+++ b/update log/trade manager - package info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\php74\htdocs\admin.editrade.com\update log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\php74\htdocs\admin.cryptoperty.id\update log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0674312-3C32-48B8-9F41-F395B57A947B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23638A4-AAB4-486C-A5F4-A78D9E869AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C0E1DF58-DBF3-40A5-83C5-47D82982F6E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C0E1DF58-DBF3-40A5-83C5-47D82982F6E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,11 +585,11 @@
         <v>15</v>
       </c>
       <c r="G2" s="1">
-        <f>F2/30</f>
+        <f>E2/30</f>
         <v>0.5</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/30</f>
+        <f>C2*G2/100</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="3">
